--- a/PPG/Colegiado.xlsx
+++ b/PPG/Colegiado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D84E4E0-9E9C-F34C-9598-B087309CE2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAB5DBD-9CE1-EC45-8D85-6085FDDF67B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="244">
   <si>
     <t>Nome</t>
   </si>
@@ -723,6 +723,51 @@
   </si>
   <si>
     <t>Nutrição</t>
+  </si>
+  <si>
+    <t>Estêvão Rios Monteiro</t>
+  </si>
+  <si>
+    <t>e.rios.monteiro@souunisuam.com.br</t>
+  </si>
+  <si>
+    <t>http://lattes.cnpq.br/3855585946664446</t>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0003-1866-553x</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=57192315244</t>
+  </si>
+  <si>
+    <t>Leo Rathinaraj Antony Soundararajan</t>
+  </si>
+  <si>
+    <t>leo_rathinaraj@yahoo.com</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-0841-0157</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=55575057600</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>🇬🇧</t>
+  </si>
+  <si>
+    <t>sreejaanatomy@gmail.com</t>
+  </si>
+  <si>
+    <t>Sreeja Mannickal Thankappan</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-5817-8501</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=57003300200</t>
   </si>
 </sst>
 </file>
@@ -860,337 +905,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{8FCBCC1E-E3F2-0641-8037-D691F97178B3}"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1527,13 +1242,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3003,7 +2718,7 @@
         <v>222</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>225</v>
@@ -3135,7 +2850,7 @@
         <v>222</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>225</v>
@@ -3174,7 +2889,7 @@
         <v>222</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>225</v>
@@ -3259,7 +2974,7 @@
         <v>222</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>226</v>
@@ -3303,7 +3018,7 @@
         <v>222</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>225</v>
@@ -3344,7 +3059,7 @@
         <v>222</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>225</v>
@@ -3403,205 +3118,160 @@
       <c r="N43" s="4" t="s">
         <v>200</v>
       </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N46" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N38">
     <sortCondition ref="B2:B38"/>
     <sortCondition ref="C2:C38"/>
   </sortState>
-  <conditionalFormatting sqref="C36 C40 C37:D38 C1:F2 C44:F1048576 C41:D42 F41:F42 F35:F38 C3:D29 F3:F33 C32:D32 C30:C31">
-    <cfRule type="containsText" dxfId="38" priority="82" operator="containsText" text="Atual">
+  <conditionalFormatting sqref="C30:D31">
+    <cfRule type="containsText" dxfId="5" priority="22" operator="containsText" text="Atual">
+      <formula>NOT(ISERROR(SEARCH("Atual",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:D36">
+    <cfRule type="containsText" dxfId="4" priority="57" operator="containsText" text="Atual">
+      <formula>NOT(ISERROR(SEARCH("Atual",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:H40">
+    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="Atual">
+      <formula>NOT(ISERROR(SEARCH("Atual",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:I1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Atual">
       <formula>NOT(ISERROR(SEARCH("Atual",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="37" priority="81" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="36" priority="80" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="35" priority="79" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" dxfId="34" priority="69" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",C35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="containsText" dxfId="33" priority="57" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",D33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="32" priority="44" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="31" priority="43" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",D39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40:F42">
-    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",F40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",D40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E40 E4:E29 E32:E36">
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",D30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",D31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43 D43">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",D43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",E43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",C43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H40 G31:H33 G35 G44:H1048576 G41:H42 G27 G30 G36:H38 G28:H29 G1:H26">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",G1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",G34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",H35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",H27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",H30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",H39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Atual">
+  <conditionalFormatting sqref="G39:G42">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Atual">
       <formula>NOT(ISERROR(SEARCH("Atual",G39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",G40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H43">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",G43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34 I28:I32 I44:I1048576 I40:I42 I1:I26 I36:I38">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",I33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",I35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",I27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",I39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Atual">
-      <formula>NOT(ISERROR(SEARCH("Atual",I43)))</formula>
+  <conditionalFormatting sqref="G34:H35">
+    <cfRule type="containsText" dxfId="0" priority="13" operator="containsText" text="Atual">
+      <formula>NOT(ISERROR(SEARCH("Atual",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PPG/Colegiado.xlsx
+++ b/PPG/Colegiado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAB5DBD-9CE1-EC45-8D85-6085FDDF67B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709EEB0-B207-C245-A64F-34FA7C4FD0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,7 +811,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,6 +827,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,7 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,10 +898,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,10 +1254,10 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1270,46 +1279,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>99</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="11" t="s">
         <v>165</v>
       </c>
     </row>
